--- a/medicine/Sexualité et sexologie/Sous-sols_(film)/Sous-sols_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Sous-sols_(film)/Sous-sols_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-sols est un documentaire autrichien sorti en 2014, réalisé par Ulrich Seidl[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-sols est un documentaire autrichien sorti en 2014, réalisé par Ulrich Seidl.
 Le film a été présenté à la Mostra de Venise 2014.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Que font les autrichiens dans leurs caves?
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Sous-sols
 Titre original : Im Keller
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fritz Lang : lui-même
 Alfreda Klebinger : elle-même
@@ -618,10 +636,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sélections
-2014 : Festival du film de Londres
-2014 : Jihlava International Documentary Film Festival
-Récompenses</t>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2014 : Festival du film de Londres
+2014 : Jihlava International Documentary Film Festival</t>
         </is>
       </c>
     </row>
